--- a/Bases/Lista de ações.xlsx
+++ b/Bases/Lista de ações.xlsx
@@ -22,7 +22,7 @@
     <t>Ticker</t>
   </si>
   <si>
-    <t>Volume no último dia útil (lido em 18/01/2025)</t>
+    <t>Volume no último dia útil (lido em 20/01/2025)</t>
   </si>
   <si>
     <t>Banco Bradesco</t>
